--- a/EC/Train Runs and Enforcements 2016-07-08.xlsx
+++ b/EC/Train Runs and Enforcements 2016-07-08.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="Train Runs" sheetId="1" r:id="rId1"/>
@@ -2669,6 +2669,13 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2698,13 +2705,6 @@
     </xf>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3073,8 +3073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CM177"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3145,18 +3145,18 @@
       <c r="F2" s="54"/>
       <c r="G2" s="60"/>
       <c r="H2" s="54"/>
-      <c r="I2" s="119">
+      <c r="I2" s="122">
         <f>Variables!A2</f>
         <v>42559</v>
       </c>
-      <c r="J2" s="120"/>
+      <c r="J2" s="123"/>
       <c r="K2" s="61"/>
       <c r="L2" s="61"/>
-      <c r="M2" s="121" t="s">
+      <c r="M2" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="122"/>
-      <c r="O2" s="123"/>
+      <c r="N2" s="125"/>
+      <c r="O2" s="126"/>
       <c r="P2" s="2"/>
       <c r="U2" s="112"/>
       <c r="V2" s="26"/>
@@ -3178,10 +3178,10 @@
       <c r="F3" s="54"/>
       <c r="G3" s="60"/>
       <c r="H3" s="54"/>
-      <c r="I3" s="124" t="s">
+      <c r="I3" s="127" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="125"/>
+      <c r="J3" s="128"/>
       <c r="K3" s="62"/>
       <c r="L3" s="62"/>
       <c r="M3" s="63" t="s">
@@ -3471,25 +3471,29 @@
       <c r="AD10" s="91"/>
     </row>
     <row r="11" spans="1:91" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="118" t="str">
+      <c r="A11" s="121" t="str">
         <f>"Eagle P3 System Performance - "&amp;TEXT(Variables!A2,"yyyy-mm-dd")</f>
         <v>Eagle P3 System Performance - 2016-07-08</v>
       </c>
-      <c r="B11" s="118"/>
-      <c r="C11" s="118"/>
-      <c r="D11" s="118"/>
-      <c r="E11" s="118"/>
-      <c r="F11" s="118"/>
-      <c r="G11" s="118"/>
-      <c r="H11" s="118"/>
-      <c r="I11" s="118"/>
-      <c r="J11" s="118"/>
-      <c r="K11" s="118"/>
-      <c r="L11" s="118"/>
-      <c r="M11" s="118"/>
-      <c r="N11" s="118"/>
-      <c r="O11" s="118"/>
-      <c r="P11" s="118"/>
+      <c r="B11" s="121"/>
+      <c r="C11" s="121"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="121"/>
+      <c r="J11" s="121"/>
+      <c r="K11" s="121"/>
+      <c r="L11" s="121"/>
+      <c r="M11" s="121"/>
+      <c r="N11" s="121"/>
+      <c r="O11" s="121"/>
+      <c r="P11" s="121"/>
+      <c r="S11" s="27">
+        <f>AVERAGE(S13:S999)</f>
+        <v>0.98726851851851849</v>
+      </c>
     </row>
     <row r="12" spans="1:91" s="5" customFormat="1" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
@@ -21551,7 +21555,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:V70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
@@ -21631,22 +21635,22 @@
       <c r="T4" s="73"/>
     </row>
     <row r="5" spans="1:22" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="126" t="str">
+      <c r="A5" s="129" t="str">
         <f>"Eagle P3 Braking Events - "&amp;TEXT(Variables!$A$2,"YYYY-mm-dd")</f>
         <v>Eagle P3 Braking Events - 2016-07-08</v>
       </c>
-      <c r="B5" s="126"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="126"/>
-      <c r="G5" s="126"/>
-      <c r="H5" s="126"/>
-      <c r="I5" s="126"/>
-      <c r="J5" s="126"/>
-      <c r="K5" s="126"/>
-      <c r="L5" s="126"/>
-      <c r="M5" s="126"/>
+      <c r="B5" s="129"/>
+      <c r="C5" s="129"/>
+      <c r="D5" s="129"/>
+      <c r="E5" s="129"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="129"/>
+      <c r="H5" s="129"/>
+      <c r="I5" s="129"/>
+      <c r="J5" s="129"/>
+      <c r="K5" s="129"/>
+      <c r="L5" s="129"/>
+      <c r="M5" s="129"/>
       <c r="N5" s="14"/>
       <c r="Q5" s="32"/>
       <c r="T5" s="74"/>
@@ -21700,13 +21704,13 @@
       <c r="Q6" s="87" t="s">
         <v>70</v>
       </c>
-      <c r="R6" s="128" t="s">
+      <c r="R6" s="118" t="s">
         <v>258</v>
       </c>
-      <c r="S6" s="129" t="s">
+      <c r="S6" s="119" t="s">
         <v>252</v>
       </c>
-      <c r="T6" s="130" t="s">
+      <c r="T6" s="120" t="s">
         <v>253</v>
       </c>
       <c r="U6" s="75" t="s">
@@ -26410,14 +26414,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="127" t="str">
+      <c r="A1" s="130" t="str">
         <f>"Trips that did not appear in PTC Data "&amp;TEXT(Variables!$A$2,"YYYY-mm-dd")</f>
         <v>Trips that did not appear in PTC Data 2016-07-08</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
     </row>
     <row r="2" spans="1:10" s="31" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
